--- a/Meetings/国际期刊分级结果1123.xlsx
+++ b/Meetings/国际期刊分级结果1123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Files\Github\HKUST_TOPIC\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA52384-97D1-4187-8213-E05B1DFBC826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0205CF58-1361-46B2-B2CB-FC71292E6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分级列表" sheetId="3" r:id="rId1"/>
@@ -6311,10 +6311,10 @@
   <dimension ref="A1:D901"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B234" sqref="B234"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="16.5" customHeight="1"/>
@@ -10140,7 +10140,7 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="19" t="s">
         <v>304</v>
       </c>
       <c r="C255" s="9" t="s">
